--- a/test_data/CDISC_Pilot_Study_VS_Timeline.xlsx
+++ b/test_data/CDISC_Pilot_Study_VS_Timeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4494E4-E504-0E48-B6BD-2503624EBCF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEBF238E-A1B5-CC46-91A6-B79F4231B738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26820" yWindow="500" windowWidth="61200" windowHeight="27240" activeTab="7" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="772">
   <si>
     <t>Screening</t>
   </si>
@@ -2394,6 +2394,9 @@
   </si>
   <si>
     <t>PR:PR1</t>
+  </si>
+  <si>
+    <t>BC:Body temperature, BC:Body Weight, BC:Body Height, TL: vsBloodPressure</t>
   </si>
 </sst>
 </file>
@@ -2627,13 +2630,13 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7568,120 +7571,120 @@
       <c r="A1" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
     </row>
     <row r="3" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="51" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
     </row>
     <row r="4" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
       <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
       <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="49" t="s">
         <v>696</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="49" t="s">
         <v>731</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -7773,16 +7776,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B4:E4"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8126,7 +8129,7 @@
   <dimension ref="A1:V68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C24" sqref="C24:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9224,13 +9227,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="51" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
         <v>648</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>209</v>
+        <v>771</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>1</v>
@@ -11405,26 +11408,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D47D794EB48E7144959FE534A5ED3D9A" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e2a26abefe6b107b571df4f2e43af2ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="98eacbea-7562-4a40-a7f2-e999cdc0cec5" xmlns:ns3="75bf9804-c18d-470a-a27f-eeaf4abcd247" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5806404ce956f9af473b927dc8d5ee33" ns2:_="" ns3:_="">
     <xsd:import namespace="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
@@ -11625,32 +11608,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{028E3775-7751-44E5-835D-F091B807F690}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11667,4 +11645,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/test_data/CDISC_Pilot_Study_VS_Timeline.xlsx
+++ b/test_data/CDISC_Pilot_Study_VS_Timeline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEBF238E-A1B5-CC46-91A6-B79F4231B738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA4FC8F-4F7B-754D-9824-C5E91AB6960D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26820" yWindow="500" windowWidth="61200" windowHeight="27240" activeTab="7" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="26820" yWindow="500" windowWidth="61200" windowHeight="27240" activeTab="10" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="775">
   <si>
     <t>Screening</t>
   </si>
@@ -2397,6 +2397,15 @@
   </si>
   <si>
     <t>BC:Body temperature, BC:Body Weight, BC:Body Height, TL: vsBloodPressure</t>
+  </si>
+  <si>
+    <t>Vital Sign Blood Pressure Timeline</t>
+  </si>
+  <si>
+    <t>BP Profile</t>
+  </si>
+  <si>
+    <t>Automatic execution</t>
   </si>
 </sst>
 </file>
@@ -2630,13 +2639,13 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3618,8 +3627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A98DD9-8159-D74D-B42C-CCC2F4D10811}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3635,7 +3644,7 @@
         <v>85</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>699</v>
+        <v>772</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>233</v>
@@ -3658,7 +3667,7 @@
         <v>87</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>694</v>
+        <v>773</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>37</v>
@@ -3670,7 +3679,7 @@
         <v>89</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>695</v>
+        <v>774</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>508</v>
@@ -7571,120 +7580,120 @@
       <c r="A1" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
     </row>
     <row r="3" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="50" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
     </row>
     <row r="4" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
       <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
       <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="51" t="s">
         <v>696</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="51" t="s">
         <v>731</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -7776,16 +7785,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8128,7 +8137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <dimension ref="A1:V68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="C24" sqref="C24:C25"/>
     </sheetView>
   </sheetViews>
@@ -11408,6 +11417,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D47D794EB48E7144959FE534A5ED3D9A" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e2a26abefe6b107b571df4f2e43af2ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="98eacbea-7562-4a40-a7f2-e999cdc0cec5" xmlns:ns3="75bf9804-c18d-470a-a27f-eeaf4abcd247" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5806404ce956f9af473b927dc8d5ee33" ns2:_="" ns3:_="">
     <xsd:import namespace="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
@@ -11608,27 +11637,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{028E3775-7751-44E5-835D-F091B807F690}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11645,29 +11679,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/test_data/CDISC_Pilot_Study_VS_Timeline.xlsx
+++ b/test_data/CDISC_Pilot_Study_VS_Timeline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA4FC8F-4F7B-754D-9824-C5E91AB6960D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F06042-6567-A84B-8A1B-EE2C52000F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26820" yWindow="500" windowWidth="61200" windowHeight="27240" activeTab="10" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="26920" yWindow="500" windowWidth="47700" windowHeight="27240" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="777">
   <si>
     <t>Screening</t>
   </si>
@@ -1598,9 +1598,6 @@
     <t>study_version</t>
   </si>
   <si>
-    <t>Approval</t>
-  </si>
-  <si>
     <t>Design approval date</t>
   </si>
   <si>
@@ -1656,9 +1653,6 @@
   </si>
   <si>
     <t>IRB/IEC Feedback</t>
-  </si>
-  <si>
-    <t>Region: Europe=15, Country: USA=20%</t>
   </si>
   <si>
     <t>Other=Fix typographical errors</t>
@@ -2406,6 +2400,18 @@
   </si>
   <si>
     <t>Automatic execution</t>
+  </si>
+  <si>
+    <t>D_APPROVE</t>
+  </si>
+  <si>
+    <t>P_APPROVE</t>
+  </si>
+  <si>
+    <t>Region: Europe=15</t>
+  </si>
+  <si>
+    <t>LZZT</t>
   </si>
 </sst>
 </file>
@@ -2963,8 +2969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E79CD3-D94C-A14B-9EDC-9C26AFA63552}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2983,7 +2989,7 @@
         <v>233</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
@@ -3033,7 +3039,7 @@
         <v>68</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>207</v>
+        <v>776</v>
       </c>
       <c r="E6" s="41"/>
       <c r="F6" s="41"/>
@@ -3147,46 +3153,46 @@
       <c r="A17" s="14" t="s">
         <v>511</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" t="s">
+        <v>773</v>
+      </c>
+      <c r="C17" t="s">
         <v>512</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>513</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>514</v>
       </c>
-      <c r="E17" t="s">
-        <v>515</v>
-      </c>
       <c r="F17" s="43">
-        <v>38899</v>
+        <v>38869</v>
       </c>
       <c r="G17" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="B18" t="s">
+        <v>774</v>
+      </c>
+      <c r="C18" t="s">
         <v>516</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>512</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>517</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>518</v>
-      </c>
-      <c r="E18" t="s">
-        <v>519</v>
       </c>
       <c r="F18" s="43">
         <v>38899</v>
       </c>
       <c r="G18" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
   </sheetData>
@@ -3217,13 +3223,13 @@
         <v>85</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>233</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -3231,7 +3237,7 @@
         <v>87</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>37</v>
@@ -3245,13 +3251,13 @@
         <v>89</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>508</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3261,38 +3267,38 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="17" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="17" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="17" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="17" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3319,7 +3325,7 @@
     <row r="11" spans="1:4" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>209</v>
@@ -3364,7 +3370,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>1</v>
@@ -3383,7 +3389,7 @@
     <row r="17" spans="1:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="6" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="1" t="s">
@@ -3393,7 +3399,7 @@
     <row r="18" spans="1:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="1" t="s">
@@ -3455,10 +3461,10 @@
     <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>1</v>
@@ -3627,7 +3633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A98DD9-8159-D74D-B42C-CCC2F4D10811}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -3644,22 +3650,22 @@
         <v>85</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>233</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -3667,7 +3673,7 @@
         <v>87</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>37</v>
@@ -3679,22 +3685,22 @@
         <v>89</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>508</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>738</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -3704,56 +3710,56 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="17" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="17" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="17" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="17" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -3770,10 +3776,10 @@
     <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>1</v>
@@ -3782,10 +3788,10 @@
     <row r="11" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>1</v>
@@ -3794,10 +3800,10 @@
     <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>1</v>
@@ -3806,10 +3812,10 @@
     <row r="13" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>1</v>
@@ -3975,620 +3981,620 @@
         <v>36</v>
       </c>
       <c r="E1" s="44" t="s">
+        <v>537</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>538</v>
+      </c>
+      <c r="G1" s="44" t="s">
         <v>539</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="H1" s="44" t="s">
         <v>540</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="I1" s="44" t="s">
         <v>541</v>
-      </c>
-      <c r="H1" s="44" t="s">
-        <v>542</v>
-      </c>
-      <c r="I1" s="44" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>546</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>548</v>
       </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>551</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>556</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>558</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>144</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>145</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>153</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>213</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>154</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>155</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>156</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>157</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>158</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="41" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="41" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>735</v>
-      </c>
       <c r="G23" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="I23" s="1"/>
     </row>
@@ -4626,10 +4632,10 @@
         <v>508</v>
       </c>
       <c r="D1" s="44" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -4657,18 +4663,18 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C7" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -4703,10 +4709,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C14" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -4756,7 +4762,7 @@
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -4766,10 +4772,10 @@
     </row>
     <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -4804,39 +4810,39 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="C34" t="s">
         <v>755</v>
-      </c>
-      <c r="C34" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C35" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="C36" t="s">
         <v>756</v>
-      </c>
-      <c r="C36" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C37" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
   </sheetData>
@@ -4879,7 +4885,7 @@
         <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C2" t="s">
         <v>226</v>
@@ -4893,7 +4899,7 @@
         <v>227</v>
       </c>
       <c r="B3" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C3" t="s">
         <v>226</v>
@@ -4947,7 +4953,7 @@
     </row>
     <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>206</v>
@@ -4996,34 +5002,34 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>45</v>
       </c>
       <c r="C1" s="21" t="s">
+        <v>611</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>613</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>615</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>46</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>47</v>
       </c>
       <c r="H1" s="21" t="s">
+        <v>612</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>680</v>
+      </c>
+      <c r="J1" s="21" t="s">
         <v>614</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>682</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>616</v>
       </c>
       <c r="K1" s="21" t="s">
         <v>48</v>
@@ -5036,11 +5042,11 @@
         <v>62</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>50</v>
@@ -5082,10 +5088,10 @@
         <v>63</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>50</v>
@@ -5144,11 +5150,11 @@
         <v>179</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>51</v>
@@ -5497,25 +5503,25 @@
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="31" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
   </sheetData>
@@ -5558,10 +5564,10 @@
         <v>36</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>98</v>
@@ -5593,7 +5599,7 @@
         <v>104</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -5722,7 +5728,7 @@
         <v>141</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -5742,7 +5748,7 @@
         <v>141</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5762,7 +5768,7 @@
         <v>141</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -5782,7 +5788,7 @@
         <v>141</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -5839,7 +5845,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A36B6E2-81ED-B543-A330-D9502D2DF96E}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5853,22 +5861,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="44" t="s">
+        <v>522</v>
+      </c>
+      <c r="B1" s="42" t="s">
         <v>523</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="C1" s="42" t="s">
         <v>524</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="D1" s="42" t="s">
         <v>525</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="E1" s="42" t="s">
         <v>526</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="F1" s="45" t="s">
         <v>527</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -5876,19 +5884,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>528</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>529</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="D2" s="14" t="s">
         <v>530</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="E2" s="14" t="s">
         <v>531</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>533</v>
-      </c>
       <c r="F2" s="14" t="s">
-        <v>532</v>
+        <v>775</v>
       </c>
     </row>
   </sheetData>
@@ -5983,7 +5991,7 @@
         <v>187</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>183</v>
@@ -5997,7 +6005,7 @@
         <v>190</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D6" s="46" t="s">
         <v>189</v>
@@ -6011,7 +6019,7 @@
         <v>187</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D7" s="46" t="s">
         <v>191</v>
@@ -6025,7 +6033,7 @@
         <v>123</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D8" s="47" t="s">
         <v>193</v>
@@ -6069,36 +6077,36 @@
         <v>508</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>60</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B2" t="s">
+        <v>603</v>
+      </c>
+      <c r="C2" t="s">
+        <v>604</v>
+      </c>
+      <c r="D2" t="s">
         <v>605</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>606</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>607</v>
-      </c>
-      <c r="E2" t="s">
-        <v>608</v>
-      </c>
-      <c r="F2" t="s">
-        <v>609</v>
       </c>
       <c r="G2" t="s">
         <v>41</v>
@@ -6106,13 +6114,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F3" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="G3" t="s">
         <v>42</v>
@@ -6120,13 +6128,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E4" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F4" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="G4" t="s">
         <v>39</v>
@@ -6134,22 +6142,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>706</v>
+      </c>
+      <c r="B5" t="s">
+        <v>707</v>
+      </c>
+      <c r="C5" t="s">
         <v>708</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>709</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
+        <v>577</v>
+      </c>
+      <c r="F5" t="s">
         <v>710</v>
-      </c>
-      <c r="D5" t="s">
-        <v>711</v>
-      </c>
-      <c r="E5" t="s">
-        <v>579</v>
-      </c>
-      <c r="F5" t="s">
-        <v>712</v>
       </c>
       <c r="G5" t="s">
         <v>508</v>
@@ -6199,7 +6207,7 @@
         <v>506</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6275,7 +6283,7 @@
         <v>503</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6312,7 +6320,7 @@
         <v>259</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="68" customHeight="1" x14ac:dyDescent="0.2">
@@ -6324,7 +6332,7 @@
         <v>261</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -6381,7 +6389,7 @@
         <v>273</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -6402,7 +6410,7 @@
         <v>277</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6414,7 +6422,7 @@
         <v>279</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -6444,7 +6452,7 @@
         <v>285</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -7531,24 +7539,24 @@
         <v>207</v>
       </c>
       <c r="F2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>532</v>
+      </c>
+      <c r="B3" t="s">
+        <v>533</v>
+      </c>
+      <c r="C3" t="s">
         <v>534</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>535</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>536</v>
-      </c>
-      <c r="D3" t="s">
-        <v>537</v>
-      </c>
-      <c r="E3" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -7653,7 +7661,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C7" s="49"/>
       <c r="D7" s="49"/>
@@ -7689,7 +7697,7 @@
         <v>84</v>
       </c>
       <c r="B10" s="51" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C10" s="51"/>
       <c r="D10" s="51"/>
@@ -7725,7 +7733,7 @@
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="24" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>118</v>
@@ -7826,7 +7834,7 @@
         <v>507</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C1" s="21" t="s">
         <v>233</v>
@@ -7841,84 +7849,84 @@
         <v>235</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>595</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>596</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="D2" s="14" t="s">
         <v>597</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="F2" s="16" t="s">
         <v>598</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="G2" s="14" t="s">
         <v>599</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>600</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B3" s="40" t="s">
+        <v>712</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>713</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>714</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="F3" s="16" t="s">
         <v>715</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>716</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>717</v>
-      </c>
       <c r="G3" s="14" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B4" s="40" t="s">
+        <v>716</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>717</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>718</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="F4" s="16" t="s">
         <v>719</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>720</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>721</v>
-      </c>
       <c r="G4" s="14" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
+        <v>724</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>725</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>727</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>728</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>726</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>727</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>729</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>730</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>728</v>
       </c>
     </row>
   </sheetData>
@@ -7957,10 +7965,10 @@
         <v>36</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -8080,7 +8088,7 @@
         <v>222</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>136</v>
@@ -8094,7 +8102,7 @@
         <v>222</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>136</v>
@@ -8108,7 +8116,7 @@
         <v>222</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>136</v>
@@ -8122,7 +8130,7 @@
         <v>224</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>225</v>
@@ -8172,52 +8180,52 @@
         <v>233</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="10" t="s">
         <v>639</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="17" x14ac:dyDescent="0.2">
@@ -8290,13 +8298,13 @@
         <v>508</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>144</v>
@@ -8311,25 +8319,25 @@
         <v>213</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>154</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>155</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>156</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>157</v>
@@ -8345,121 +8353,121 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="17" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="J5" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="L5" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="M5" s="1" t="s">
+      <c r="P5" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="P5" s="1" t="s">
+      <c r="R5" s="10" t="s">
         <v>639</v>
       </c>
-      <c r="Q5" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>641</v>
-      </c>
       <c r="S5" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="17" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="17" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -8514,7 +8522,7 @@
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="17" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>100</v>
@@ -8799,7 +8807,7 @@
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="1" t="s">
@@ -8854,7 +8862,7 @@
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="1" t="s">
@@ -9239,10 +9247,10 @@
     <row r="22" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>1</v>
@@ -9519,7 +9527,7 @@
         <v>169</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>1</v>
@@ -9686,7 +9694,7 @@
         <v>13</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>1</v>
@@ -9795,7 +9803,7 @@
     <row r="32" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="6" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="30" t="s">
@@ -9907,7 +9915,7 @@
     <row r="34" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="6" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="1" t="s">
@@ -10701,13 +10709,13 @@
         <v>85</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>233</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="17" x14ac:dyDescent="0.2">
@@ -10715,7 +10723,7 @@
         <v>87</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>37</v>
@@ -10729,13 +10737,13 @@
         <v>89</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>508</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
@@ -10745,38 +10753,38 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="17" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="17" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="17" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="17" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">

--- a/test_data/CDISC_Pilot_Study_VS_Timeline.xlsx
+++ b/test_data/CDISC_Pilot_Study_VS_Timeline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F06042-6567-A84B-8A1B-EE2C52000F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EEBB730-A752-FC44-924A-AB88E7F71CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26920" yWindow="500" windowWidth="47700" windowHeight="27240" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="26920" yWindow="500" windowWidth="47700" windowHeight="27240" firstSheet="10" activeTab="21" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -26,16 +26,17 @@
     <sheet name="vsBloodPressure" sheetId="24" r:id="rId11"/>
     <sheet name="studyDesignTiming" sheetId="18" r:id="rId12"/>
     <sheet name="studyDesignActivities" sheetId="21" r:id="rId13"/>
-    <sheet name="studyDesignII" sheetId="6" r:id="rId14"/>
-    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId15"/>
-    <sheet name="studyDesignOE" sheetId="8" r:id="rId16"/>
-    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId17"/>
-    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId18"/>
-    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId19"/>
-    <sheet name="studyDesignElements" sheetId="13" r:id="rId20"/>
-    <sheet name="dictionaries" sheetId="20" r:id="rId21"/>
-    <sheet name="studyDesignContent" sheetId="16" r:id="rId22"/>
-    <sheet name="configuration" sheetId="10" r:id="rId23"/>
+    <sheet name="studyDesignInterventions" sheetId="25" r:id="rId14"/>
+    <sheet name="studyDesignIndications" sheetId="6" r:id="rId15"/>
+    <sheet name="studyDesignPopulations" sheetId="7" r:id="rId16"/>
+    <sheet name="studyDesignOE" sheetId="8" r:id="rId17"/>
+    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId18"/>
+    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId19"/>
+    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId20"/>
+    <sheet name="studyDesignElements" sheetId="13" r:id="rId21"/>
+    <sheet name="dictionaries" sheetId="20" r:id="rId22"/>
+    <sheet name="studyDesignContent" sheetId="16" r:id="rId23"/>
+    <sheet name="configuration" sheetId="10" r:id="rId24"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="793">
   <si>
     <t>Screening</t>
   </si>
@@ -178,15 +179,6 @@
   </si>
   <si>
     <t>populationDescription</t>
-  </si>
-  <si>
-    <t>plannedNumberOfParticipants</t>
-  </si>
-  <si>
-    <t>plannedMinimumAgeOfParticipants</t>
-  </si>
-  <si>
-    <t>plannedMaximumAgeOfParticipants</t>
   </si>
   <si>
     <t>plannedSexOfParticipants</t>
@@ -1924,9 +1916,6 @@
   </si>
   <si>
     <t xml:space="preserve">To document the safety profile of the xanomeline TTS.  </t>
-  </si>
-  <si>
-    <t>Indication</t>
   </si>
   <si>
     <t>High - Start</t>
@@ -2315,9 +2304,6 @@
     <t>3 mins</t>
   </si>
   <si>
-    <t>-2..0 mins</t>
-  </si>
-  <si>
     <t>0 mins</t>
   </si>
   <si>
@@ -2412,6 +2398,69 @@
   </si>
   <si>
     <t>LZZT</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>plannedCompletionNumber</t>
+  </si>
+  <si>
+    <t>plannedEnrollmentNumber</t>
+  </si>
+  <si>
+    <t>plannedMinimumAge</t>
+  </si>
+  <si>
+    <t>plannedMaximumAge</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>pharmacologicalClass</t>
+  </si>
+  <si>
+    <t>productDesignation</t>
+  </si>
+  <si>
+    <t>minimumResponseDuration</t>
+  </si>
+  <si>
+    <t>administrationName</t>
+  </si>
+  <si>
+    <t>administrationDescription</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  administrationLabel</t>
+  </si>
+  <si>
+    <t>administrationRoute</t>
+  </si>
+  <si>
+    <t>administrationDose</t>
+  </si>
+  <si>
+    <t>administrationFrequency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  administrationDurationDescription</t>
+  </si>
+  <si>
+    <t>administrationDurationWillVary</t>
+  </si>
+  <si>
+    <t>administrationDurationWillVaryReason</t>
+  </si>
+  <si>
+    <t>administrationDurationQuantity</t>
+  </si>
+  <si>
+    <t>-2..0 min</t>
   </si>
 </sst>
 </file>
@@ -2969,7 +3018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E79CD3-D94C-A14B-9EDC-9C26AFA63552}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -2986,10 +3035,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
@@ -2999,7 +3048,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E2" s="41"/>
       <c r="F2" s="41"/>
@@ -3009,7 +3058,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E3" s="41"/>
       <c r="F3" s="41"/>
@@ -3029,74 +3078,74 @@
         <v>21</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E5" s="41"/>
       <c r="F5" s="41"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="42" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="E6" s="41"/>
       <c r="F6" s="41"/>
     </row>
     <row r="7" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="42" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E7" s="41"/>
       <c r="F7" s="41"/>
     </row>
     <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="42" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E8" s="41"/>
       <c r="F8" s="41"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="42" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E9" s="41"/>
       <c r="F9" s="41"/>
     </row>
     <row r="10" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="42" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E10" s="41"/>
       <c r="F10" s="41"/>
     </row>
     <row r="11" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="42" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E11" s="41"/>
       <c r="F11" s="41"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="42" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B12" s="14"/>
       <c r="E12" s="41"/>
@@ -3104,20 +3153,20 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="42" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E13" s="41"/>
       <c r="F13" s="41"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="42" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E14" s="41"/>
       <c r="F14" s="41"/>
@@ -3128,71 +3177,71 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="42" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C16" s="42" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>36</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="B17" t="s">
+        <v>768</v>
+      </c>
+      <c r="C17" t="s">
+        <v>509</v>
+      </c>
+      <c r="D17" t="s">
+        <v>510</v>
+      </c>
+      <c r="E17" t="s">
         <v>511</v>
-      </c>
-      <c r="B17" t="s">
-        <v>773</v>
-      </c>
-      <c r="C17" t="s">
-        <v>512</v>
-      </c>
-      <c r="D17" t="s">
-        <v>513</v>
-      </c>
-      <c r="E17" t="s">
-        <v>514</v>
       </c>
       <c r="F17" s="43">
         <v>38869</v>
       </c>
       <c r="G17" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="B18" t="s">
+        <v>769</v>
+      </c>
+      <c r="C18" t="s">
+        <v>513</v>
+      </c>
+      <c r="D18" t="s">
+        <v>514</v>
+      </c>
+      <c r="E18" t="s">
         <v>515</v>
-      </c>
-      <c r="B18" t="s">
-        <v>774</v>
-      </c>
-      <c r="C18" t="s">
-        <v>516</v>
-      </c>
-      <c r="D18" t="s">
-        <v>517</v>
-      </c>
-      <c r="E18" t="s">
-        <v>518</v>
       </c>
       <c r="F18" s="43">
         <v>38899</v>
       </c>
       <c r="G18" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -3220,24 +3269,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>37</v>
@@ -3248,16 +3297,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3267,38 +3316,38 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="17" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="17" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="17" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="17" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3309,7 +3358,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3325,10 +3374,10 @@
     <row r="11" spans="1:4" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>1</v>
@@ -3370,7 +3419,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>1</v>
@@ -3379,7 +3428,7 @@
     <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="1" t="s">
@@ -3389,7 +3438,7 @@
     <row r="17" spans="1:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="6" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="1" t="s">
@@ -3399,7 +3448,7 @@
     <row r="18" spans="1:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="1" t="s">
@@ -3409,7 +3458,7 @@
     <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="1" t="s">
@@ -3421,7 +3470,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="1" t="s">
@@ -3431,7 +3480,7 @@
     <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="1" t="s">
@@ -3441,7 +3490,7 @@
     <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="1" t="s">
@@ -3451,7 +3500,7 @@
     <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="1" t="s">
@@ -3461,10 +3510,10 @@
     <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>1</v>
@@ -3647,33 +3696,33 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>37</v>
@@ -3682,25 +3731,25 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -3710,56 +3759,56 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="17" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="17" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="17" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="17" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -3770,16 +3819,16 @@
         <v>3</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="3" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>1</v>
@@ -3788,10 +3837,10 @@
     <row r="11" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="3" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>1</v>
@@ -3800,10 +3849,10 @@
     <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>1</v>
@@ -3812,10 +3861,10 @@
     <row r="13" spans="1:7" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>1</v>
@@ -3954,7 +4003,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3969,632 +4018,632 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B1" s="44" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D1" s="44" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="44" t="s">
+        <v>534</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>535</v>
+      </c>
+      <c r="G1" s="44" t="s">
+        <v>536</v>
+      </c>
+      <c r="H1" s="44" t="s">
         <v>537</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="I1" s="44" t="s">
         <v>538</v>
-      </c>
-      <c r="G1" s="44" t="s">
-        <v>539</v>
-      </c>
-      <c r="H1" s="44" t="s">
-        <v>540</v>
-      </c>
-      <c r="I1" s="44" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>548</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>553</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>556</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>558</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>558</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>558</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>558</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>678</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>558</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="41" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="41" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>734</v>
-      </c>
       <c r="G21" s="1" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>744</v>
+        <v>792</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="I23" s="1"/>
     </row>
@@ -4623,19 +4672,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D1" s="44" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -4650,7 +4699,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -4663,18 +4712,18 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="C7" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -4689,40 +4738,40 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C14" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -4732,12 +4781,12 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -4757,50 +4806,50 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -4810,39 +4859,39 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="C34" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C35" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="C36" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="C37" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
     </row>
   </sheetData>
@@ -4851,30 +4900,124 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{807AE9D8-8C9D-644F-8552-6E66F0115CF1}">
+  <dimension ref="A1:S1"/>
+  <sheetViews>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="23.5" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="27.83203125" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" customWidth="1"/>
+    <col min="11" max="11" width="25.5" customWidth="1"/>
+    <col min="12" max="12" width="19.83203125" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" customWidth="1"/>
+    <col min="15" max="15" width="22.83203125" customWidth="1"/>
+    <col min="16" max="16" width="33.33203125" customWidth="1"/>
+    <col min="17" max="17" width="29.1640625" customWidth="1"/>
+    <col min="18" max="18" width="34.83203125" customWidth="1"/>
+    <col min="19" max="19" width="29.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>778</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>779</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>780</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>781</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>782</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>783</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>784</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>785</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>786</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>787</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>788</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>789</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>790</v>
+      </c>
+      <c r="S1" s="21" t="s">
+        <v>791</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C46FA45D-9570-C643-AC7B-6310BD62121C}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.83203125" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" customWidth="1"/>
+    <col min="2" max="3" width="17.83203125" customWidth="1"/>
     <col min="4" max="4" width="50.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>37</v>
+        <v>505</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>38</v>
@@ -4882,93 +5025,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>621</v>
+        <v>223</v>
       </c>
       <c r="C2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>226</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B3" t="s">
-        <v>621</v>
+        <v>223</v>
       </c>
       <c r="C3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>228</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8C2F56-38DA-1440-8447-6C36029D01F5}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8.83203125" customWidth="1"/>
-    <col min="2" max="2" width="53.33203125" customWidth="1"/>
-    <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="5" width="33" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
-        <v>607</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="C2" s="3">
-        <v>300</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E2" s="46" t="s">
-        <v>202</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>44</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -4978,6 +5058,86 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8C2F56-38DA-1440-8447-6C36029D01F5}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" customWidth="1"/>
+    <col min="3" max="3" width="54.1640625" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" customWidth="1"/>
+    <col min="5" max="6" width="25.83203125" customWidth="1"/>
+    <col min="7" max="8" width="20.6640625" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>772</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>505</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>773</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>774</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>775</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>776</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="3" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="E2" s="3">
+        <v>300</v>
+      </c>
+      <c r="F2" s="3">
+        <v>300</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="H2" s="46" t="s">
+        <v>199</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9162AE3F-0A5D-824F-8BC1-E6A493EFAA49}">
   <dimension ref="A1:O22"/>
   <sheetViews>
@@ -5002,65 +5162,65 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>606</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>608</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>610</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>607</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="I1" s="21" t="s">
+        <v>676</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>611</v>
+      </c>
+      <c r="K1" s="21" t="s">
         <v>45</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>611</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>613</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>610</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>612</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>680</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>614</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>48</v>
       </c>
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
     </row>
     <row r="2" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="E2" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>50</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>53</v>
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="16" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="J2" s="16"/>
       <c r="K2" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
@@ -5069,15 +5229,15 @@
     <row r="3" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="D3" s="16"/>
       <c r="F3" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H3" s="16"/>
       <c r="I3" s="16" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
@@ -5085,26 +5245,26 @@
     </row>
     <row r="4" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I4" s="16" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="16"/>
       <c r="K4" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
@@ -5113,14 +5273,14 @@
     <row r="5" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="D5" s="16"/>
       <c r="F5" s="14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J5" s="16"/>
       <c r="K5" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
@@ -5129,17 +5289,17 @@
     <row r="6" spans="1:15" ht="85" x14ac:dyDescent="0.2">
       <c r="D6" s="16"/>
       <c r="F6" s="14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="J6" s="16"/>
       <c r="K6" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
@@ -5147,28 +5307,28 @@
     </row>
     <row r="7" spans="1:15" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H7" s="16"/>
       <c r="I7" s="16" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="J7" s="16"/>
       <c r="K7" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
@@ -5176,15 +5336,15 @@
     </row>
     <row r="8" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="F8" s="14" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H8" s="16"/>
       <c r="I8" s="16" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="J8" s="16"/>
       <c r="K8" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
@@ -5192,14 +5352,14 @@
     </row>
     <row r="9" spans="1:15" ht="34" x14ac:dyDescent="0.2">
       <c r="F9" s="14" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J9" s="16"/>
       <c r="K9" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
@@ -5389,7 +5549,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D036654E-7FF8-D440-BC0A-D74BC57BB3C9}">
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -5409,28 +5569,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>39</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -5439,7 +5599,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B29E6393-3A18-464C-A40D-B41879707264}">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -5461,381 +5621,70 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D1" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>91</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="31" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB4E9D5-B601-284A-9651-0AA604C2B9D1}">
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="43.83203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="22" style="3" customWidth="1"/>
-    <col min="7" max="7" width="54" style="3" customWidth="1"/>
-    <col min="8" max="8" width="61.6640625" style="6" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>508</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>642</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>643</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5861,22 +5710,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="44" t="s">
+        <v>519</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>520</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="D1" s="42" t="s">
         <v>522</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="E1" s="42" t="s">
         <v>523</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="F1" s="45" t="s">
         <v>524</v>
-      </c>
-      <c r="D1" s="42" t="s">
-        <v>525</v>
-      </c>
-      <c r="E1" s="42" t="s">
-        <v>526</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -5884,19 +5733,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>525</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>526</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>527</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>528</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>529</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>530</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>531</v>
-      </c>
       <c r="F2" s="14" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
     </row>
   </sheetData>
@@ -5905,6 +5754,317 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB4E9D5-B601-284A-9651-0AA604C2B9D1}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="43.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="22" style="3" customWidth="1"/>
+    <col min="7" max="7" width="54" style="3" customWidth="1"/>
+    <col min="8" max="8" width="61.6640625" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>638</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>639</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6FA5DC6-70BE-E845-A085-20526138A835}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -5923,27 +6083,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
@@ -5952,94 +6112,94 @@
         <v>4</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="D8" s="47" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E8" s="47" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -6048,12 +6208,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989384DC-1C54-514A-8A1E-ADD84D891BA4}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6068,99 +6228,99 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B2" t="s">
+        <v>600</v>
+      </c>
+      <c r="C2" t="s">
+        <v>601</v>
+      </c>
+      <c r="D2" t="s">
+        <v>602</v>
+      </c>
+      <c r="E2" t="s">
         <v>603</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>604</v>
       </c>
-      <c r="D2" t="s">
-        <v>605</v>
-      </c>
-      <c r="E2" t="s">
-        <v>606</v>
-      </c>
-      <c r="F2" t="s">
-        <v>607</v>
-      </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>775</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E3" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="F3" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>776</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="E4" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="F4" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>702</v>
+      </c>
+      <c r="B5" t="s">
+        <v>703</v>
+      </c>
+      <c r="C5" t="s">
+        <v>704</v>
+      </c>
+      <c r="D5" t="s">
+        <v>705</v>
+      </c>
+      <c r="E5" t="s">
+        <v>574</v>
+      </c>
+      <c r="F5" t="s">
         <v>706</v>
       </c>
-      <c r="B5" t="s">
-        <v>707</v>
-      </c>
-      <c r="C5" t="s">
-        <v>708</v>
-      </c>
-      <c r="D5" t="s">
-        <v>709</v>
-      </c>
-      <c r="E5" t="s">
-        <v>577</v>
-      </c>
-      <c r="F5" t="s">
-        <v>710</v>
-      </c>
       <c r="G5" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -6168,7 +6328,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2976DC75-5A85-2A48-9FBD-A6539815E624}">
   <dimension ref="A1:D139"/>
   <sheetViews>
@@ -6186,1251 +6346,1251 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>232</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>233</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B2" s="39"/>
       <c r="C2" s="6" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B3" s="39"/>
       <c r="C3" s="6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="40" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B14" s="39"/>
       <c r="C14" s="6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B15" s="39"/>
       <c r="C15" s="6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B16" s="39"/>
       <c r="C16" s="6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B17" s="39"/>
       <c r="C17" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B18" s="39"/>
       <c r="C18" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B19" s="39"/>
       <c r="C19" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B20" s="39"/>
       <c r="C20" s="6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B21" s="39"/>
       <c r="C21" s="6" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B22" s="39"/>
       <c r="C22" s="6" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B23" s="39"/>
       <c r="C23" s="6" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B24" s="39"/>
       <c r="C24" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B25" s="39"/>
       <c r="C25" s="6" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B26" s="39"/>
       <c r="C26" s="6" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B27" s="39"/>
       <c r="C27" s="6" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B28" s="39"/>
       <c r="C28" s="6" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B29" s="39"/>
       <c r="C29" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B30" s="39"/>
       <c r="C30" s="6" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B31" s="39"/>
       <c r="C31" s="6" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B32" s="39"/>
       <c r="C32" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B33" s="39"/>
       <c r="C33" s="6" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B34" s="39"/>
       <c r="C34" s="6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B35" s="39"/>
       <c r="C35" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B36" s="39"/>
       <c r="C36" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B37" s="39"/>
       <c r="C37" s="6" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B38" s="39"/>
       <c r="C38" s="6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B39" s="39"/>
       <c r="C39" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B40" s="39"/>
       <c r="C40" s="6" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B41" s="39"/>
       <c r="C41" s="6" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B42" s="39"/>
       <c r="C42" s="6" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B43" s="39"/>
       <c r="C43" s="6" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B44" s="39"/>
       <c r="C44" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="181" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B45" s="39"/>
       <c r="C45" s="6" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B46" s="39"/>
       <c r="C46" s="6" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B47" s="39"/>
       <c r="C47" s="6" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B48" s="39"/>
       <c r="C48" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B49" s="39"/>
       <c r="C49" s="6" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B50" s="39"/>
       <c r="C50" s="6" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B51" s="39"/>
       <c r="C51" s="6" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B52" s="39"/>
       <c r="C52" s="6" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B53" s="39"/>
       <c r="C53" s="6" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B54" s="39"/>
       <c r="C54" s="6" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B55" s="39"/>
       <c r="C55" s="6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B56" s="39"/>
       <c r="C56" s="6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B57" s="39"/>
       <c r="C57" s="6" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="14" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B58" s="39"/>
       <c r="C58" s="6" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B59" s="39"/>
       <c r="C59" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" s="14" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B60" s="39"/>
       <c r="C60" s="6" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B61" s="39"/>
       <c r="C61" s="6" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B62" s="39"/>
       <c r="C62" s="6" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B63" s="39"/>
       <c r="C63" s="6" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B64" s="39"/>
       <c r="C64" s="6" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B65" s="39"/>
       <c r="C65" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B66" s="39"/>
       <c r="C66" s="6" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B67" s="39"/>
       <c r="C67" s="6" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B68" s="39"/>
       <c r="C68" s="6" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="14" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B69" s="39"/>
       <c r="C69" s="6" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="14" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B70" s="39"/>
       <c r="C70" s="6" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B71" s="39"/>
       <c r="C71" s="6" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="14" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B72" s="39"/>
       <c r="C72" s="6" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="14" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B73" s="39"/>
       <c r="C73" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="14" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B74" s="39"/>
       <c r="C74" s="6" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="14" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B75" s="39"/>
       <c r="C75" s="6" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A76" s="14" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B76" s="39"/>
       <c r="C76" s="6" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A77" s="14" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B77" s="39"/>
       <c r="C77" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="14" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B78" s="39"/>
       <c r="C78" s="6" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A79" s="14" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B79" s="39"/>
       <c r="C79" s="6" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A80" s="14" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B80" s="39"/>
       <c r="C80" s="6" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" s="14" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B81" s="39"/>
       <c r="C81" s="6" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="14" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B82" s="39"/>
       <c r="C82" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A83" s="14" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B83" s="39"/>
       <c r="C83" s="6" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="14" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B84" s="39"/>
       <c r="C84" s="6" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="14" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B85" s="39"/>
       <c r="C85" s="6" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A86" s="14" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B86" s="39"/>
       <c r="C86" s="6" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="14" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B87" s="39"/>
       <c r="C87" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A88" s="14" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B88" s="39"/>
       <c r="C88" s="6" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="14" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B89" s="39"/>
       <c r="C89" s="6" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="14" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B90" s="39"/>
       <c r="C90" s="6" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="14" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B91" s="39"/>
       <c r="C91" s="6" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A92" s="14" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B92" s="39"/>
       <c r="C92" s="6" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A93" s="14" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B93" s="39"/>
       <c r="C93" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A94" s="14" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B94" s="39"/>
       <c r="C94" s="6" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="14" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B95" s="39"/>
       <c r="C95" s="6" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A96" s="14" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B96" s="39"/>
       <c r="C96" s="6" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A97" s="14" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B97" s="39"/>
       <c r="C97" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A98" s="14" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B98" s="39"/>
       <c r="C98" s="6" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="14" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B99" s="39"/>
       <c r="C99" s="6" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="14" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B100" s="39"/>
       <c r="C100" s="6" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="14" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B101" s="39"/>
       <c r="C101" s="6" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A102" s="14" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B102" s="39"/>
       <c r="C102" s="6" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A103" s="14" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B103" s="39"/>
       <c r="C103" s="6" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="14" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B104" s="39"/>
       <c r="C104" s="6" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="14" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B105" s="39"/>
       <c r="C105" s="6" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="14" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B106" s="39"/>
       <c r="C106" s="6" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="14" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B107" s="39"/>
       <c r="C107" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="14" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B108" s="39"/>
       <c r="C108" s="6" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A109" s="14" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B109" s="39"/>
       <c r="C109" s="6" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A110" s="14" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B110" s="39"/>
       <c r="C110" s="6" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="14" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B111" s="39"/>
       <c r="C111" s="6" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="14" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B112" s="39"/>
       <c r="C112" s="6" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="14" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B113" s="39"/>
       <c r="C113" s="6" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="14" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B114" s="39"/>
       <c r="C114" s="6" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A115" s="14" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B115" s="39"/>
       <c r="C115" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="14" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B116" s="39"/>
       <c r="C116" s="6" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="14" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B117" s="39"/>
       <c r="C117" s="6" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="14" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B118" s="39"/>
       <c r="C118" s="6" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A119" s="14" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B119" s="39"/>
       <c r="C119" s="6" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A120" s="14" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B120" s="39"/>
       <c r="C120" s="6" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A121" s="14" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B121" s="39"/>
       <c r="C121" s="6" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="14" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B122" s="39"/>
       <c r="C122" s="6" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="14" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B123" s="39"/>
       <c r="C123" s="6" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A124" s="14" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B124" s="39"/>
       <c r="C124" s="6" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A125" s="14" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B125" s="39"/>
       <c r="C125" s="6" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A126" s="14" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B126" s="39"/>
       <c r="C126" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="14" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B127" s="39"/>
       <c r="C127" s="6" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="14" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B128" s="39"/>
       <c r="C128" s="6" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="14" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B129" s="39"/>
       <c r="C129" s="6" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A130" s="14" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B130" s="39"/>
       <c r="C130" s="6" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="14" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B131" s="39"/>
       <c r="C131" s="6" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A132" s="14" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B132" s="39"/>
       <c r="C132" s="6" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="14" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B133" s="39"/>
       <c r="C133" s="6" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="14" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="14" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="14" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="14" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="14" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="14" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>
@@ -7439,7 +7599,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED6534B-B4C9-924A-BB14-180C2C37C6F1}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -7452,34 +7612,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -7527,36 +7687,36 @@
         <v>27</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F2" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>529</v>
+      </c>
+      <c r="B3" t="s">
+        <v>530</v>
+      </c>
+      <c r="C3" t="s">
+        <v>531</v>
+      </c>
+      <c r="D3" t="s">
         <v>532</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
         <v>533</v>
-      </c>
-      <c r="C3" t="s">
-        <v>534</v>
-      </c>
-      <c r="D3" t="s">
-        <v>535</v>
-      </c>
-      <c r="E3" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -7586,10 +7746,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C1" s="49"/>
       <c r="D1" s="49"/>
@@ -7598,10 +7758,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C2" s="49"/>
       <c r="D2" s="49"/>
@@ -7613,7 +7773,7 @@
         <v>28</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C3" s="50"/>
       <c r="D3" s="50"/>
@@ -7625,7 +7785,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C4" s="51"/>
       <c r="D4" s="51"/>
@@ -7637,7 +7797,7 @@
         <v>30</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C5" s="49"/>
       <c r="D5" s="49"/>
@@ -7649,7 +7809,7 @@
         <v>31</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C6" s="49"/>
       <c r="D6" s="49"/>
@@ -7661,7 +7821,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="C7" s="49"/>
       <c r="D7" s="49"/>
@@ -7673,7 +7833,7 @@
         <v>33</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C8" s="49"/>
       <c r="D8" s="49"/>
@@ -7682,10 +7842,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C9" s="49"/>
       <c r="D9" s="49"/>
@@ -7694,10 +7854,10 @@
     </row>
     <row r="10" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B10" s="51" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="C10" s="51"/>
       <c r="D10" s="51"/>
@@ -7713,82 +7873,82 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="24" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="C14" s="28" t="s">
-        <v>121</v>
-      </c>
       <c r="D14" s="28" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -7831,102 +7991,102 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>592</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>594</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="F2" s="16" t="s">
         <v>595</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="G2" s="14" t="s">
         <v>596</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>597</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>598</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
+        <v>720</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>721</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>723</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>724</v>
       </c>
-      <c r="B5" s="40" t="s">
-        <v>725</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>727</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>728</v>
-      </c>
       <c r="F5" s="16" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
   </sheetData>
@@ -7953,82 +8113,82 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>36</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="35" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="36" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="E4" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -8054,13 +8214,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>36</v>
@@ -8068,72 +8228,72 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="37" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -8171,69 +8331,69 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>575</v>
-      </c>
       <c r="S1" s="10" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>37</v>
@@ -8289,61 +8449,61 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="N3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -8353,121 +8513,121 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="17" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="J5" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="L5" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="N5" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="K5" s="1" t="s">
+      <c r="P5" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="Q5" s="1" t="s">
+      <c r="R5" s="10" t="s">
+        <v>635</v>
+      </c>
+      <c r="S5" s="2" t="s">
         <v>575</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>639</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="17" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="17" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
@@ -8476,101 +8636,101 @@
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="17" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="I8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="K8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="M8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="L8" s="1" t="s">
+      <c r="O8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="O8" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="S8" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
@@ -8581,7 +8741,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
@@ -8697,7 +8857,7 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="1" t="s">
@@ -8807,7 +8967,7 @@
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="1" t="s">
@@ -8862,7 +9022,7 @@
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="1" t="s">
@@ -9027,7 +9187,7 @@
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="1" t="s">
@@ -9082,7 +9242,7 @@
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="1" t="s">
@@ -9137,7 +9297,7 @@
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="2" t="s">
@@ -9192,7 +9352,7 @@
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="2" t="s">
@@ -9247,10 +9407,10 @@
     <row r="22" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>1</v>
@@ -9304,7 +9464,7 @@
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="1" t="s">
@@ -9359,7 +9519,7 @@
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="1" t="s">
@@ -9469,7 +9629,7 @@
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="1" t="s">
@@ -9524,10 +9684,10 @@
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>1</v>
@@ -9694,7 +9854,7 @@
         <v>13</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>1</v>
@@ -9748,7 +9908,7 @@
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="1" t="s">
@@ -9803,7 +9963,7 @@
     <row r="32" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="6" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="30" t="s">
@@ -9858,10 +10018,10 @@
     <row r="33" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
       <c r="B33" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>1</v>
@@ -9915,7 +10075,7 @@
     <row r="34" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
       <c r="B34" s="6" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="1" t="s">
@@ -9970,7 +10130,7 @@
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="2" t="s">
@@ -10027,7 +10187,7 @@
         <v>17</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="1" t="s">
@@ -10082,7 +10242,7 @@
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
       <c r="B37" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="1" t="s">
@@ -10137,7 +10297,7 @@
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="B38" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="1" t="s">
@@ -10192,7 +10352,7 @@
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
       <c r="B39" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="1" t="s">
@@ -10706,24 +10866,24 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>37</v>
@@ -10734,16 +10894,16 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
@@ -10753,38 +10913,38 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="17" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="17" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="17" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="17" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
@@ -10795,7 +10955,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -10804,7 +10964,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>1</v>

--- a/test_data/CDISC_Pilot_Study_VS_Timeline.xlsx
+++ b/test_data/CDISC_Pilot_Study_VS_Timeline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EEBB730-A752-FC44-924A-AB88E7F71CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF06886-2ECE-BE47-88B5-460711CAFC68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26920" yWindow="500" windowWidth="47700" windowHeight="27240" firstSheet="10" activeTab="21" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="26920" yWindow="500" windowWidth="47700" windowHeight="27240" firstSheet="10" activeTab="19" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="793">
   <si>
     <t>Screening</t>
   </si>
@@ -2694,13 +2694,13 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4003,7 +4003,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5755,10 +5755,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB4E9D5-B601-284A-9651-0AA604C2B9D1}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5773,7 +5773,7 @@
     <col min="8" max="8" width="61.6640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>230</v>
       </c>
@@ -5798,8 +5798,11 @@
       <c r="H1" s="21" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I1" s="21" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>97</v>
       </c>
@@ -5825,7 +5828,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>102</v>
       </c>
@@ -5847,8 +5850,11 @@
       <c r="H3" s="6" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I3" s="3" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>103</v>
       </c>
@@ -5874,7 +5880,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>105</v>
       </c>
@@ -5893,8 +5899,11 @@
       <c r="F5" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" s="3" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>106</v>
       </c>
@@ -5913,8 +5922,11 @@
       <c r="F6" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" s="3" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>107</v>
       </c>
@@ -5933,8 +5945,11 @@
       <c r="F7" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" s="3" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>108</v>
       </c>
@@ -5953,8 +5968,11 @@
       <c r="F8" s="3" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" s="3" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>109</v>
       </c>
@@ -5973,8 +5991,11 @@
       <c r="F9" s="3" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9" s="3" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>110</v>
       </c>
@@ -5993,8 +6014,11 @@
       <c r="F10" s="3" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10" s="3" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>112</v>
       </c>
@@ -6013,8 +6037,11 @@
       <c r="F11" s="3" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11" s="3" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>113</v>
       </c>
@@ -6033,8 +6060,11 @@
       <c r="F12" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="I12" s="3" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>114</v>
       </c>
@@ -6055,6 +6085,9 @@
       </c>
       <c r="H13" s="6" t="s">
         <v>111</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>586</v>
       </c>
     </row>
   </sheetData>
@@ -6212,7 +6245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989384DC-1C54-514A-8A1E-ADD84D891BA4}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -7748,120 +7781,120 @@
       <c r="A1" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
     </row>
     <row r="3" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="51" t="s">
         <v>202</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
     </row>
     <row r="4" spans="1:6" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
       <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
       <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="49" t="s">
         <v>690</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
       <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
       <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="49" t="s">
         <v>725</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
       <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -7953,16 +7986,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B4:E4"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B4:E4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11585,6 +11618,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
@@ -11593,15 +11635,6 @@
     <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11806,6 +11839,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -11818,14 +11859,6 @@
     <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/test_data/CDISC_Pilot_Study_VS_Timeline.xlsx
+++ b/test_data/CDISC_Pilot_Study_VS_Timeline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7115D7A-27C1-D64F-B27B-10BB7821794D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12EB0FB1-605E-6748-A30F-E83004A4B09A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31360" yWindow="500" windowWidth="47700" windowHeight="27240" activeTab="3" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="31360" yWindow="500" windowWidth="47700" windowHeight="27240" activeTab="13" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1834" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1834" uniqueCount="818">
   <si>
     <t>Screening</t>
   </si>
@@ -2526,9 +2526,6 @@
   </si>
   <si>
     <t>If this is true</t>
-  </si>
-  <si>
-    <t>Procedures</t>
   </si>
   <si>
     <t>@plannedAge/Range/@minValue</t>
@@ -2749,15 +2746,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2766,6 +2754,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2785,9 +2782,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2825,7 +2822,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2931,7 +2928,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3073,7 +3070,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4547,22 +4544,22 @@
       <c r="C3" s="14" t="s">
         <v>499</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="43" t="s">
         <v>718</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="44" t="s">
         <v>763</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="44" t="s">
         <v>764</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="44" t="s">
         <v>765</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="44" t="s">
         <v>766</v>
       </c>
-      <c r="I3" s="47" t="s">
+      <c r="I3" s="44" t="s">
         <v>767</v>
       </c>
     </row>
@@ -5541,8 +5538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8C14B1-8C62-2C45-8CB1-1E9EDDA367B1}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5588,7 +5585,7 @@
         <v>813</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>814</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>90</v>
@@ -6040,7 +6037,7 @@
       <c r="H1" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="45" t="s">
         <v>779</v>
       </c>
     </row>
@@ -6052,7 +6049,7 @@
         <v>598</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E2" s="3">
         <v>300</v>
@@ -7231,7 +7228,7 @@
         <v>598</v>
       </c>
       <c r="G2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -7245,7 +7242,7 @@
         <v>598</v>
       </c>
       <c r="G3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -8694,7 +8691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57AA03AF-8646-874D-935F-A73550A0FA0C}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -8710,144 +8707,144 @@
       <c r="A1" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="44" t="s">
-        <v>817</v>
-      </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
+      <c r="B3" s="48" t="s">
+        <v>816</v>
+      </c>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
     </row>
     <row r="4" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
       <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
       <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="46" t="s">
         <v>682</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
       <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
       <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>805</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="47" t="s">
         <v>806</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
       <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>807</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="47" t="s">
         <v>808</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
       <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
       <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="46" t="s">
         <v>717</v>
       </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
       <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -8939,6 +8936,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B4:F4"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B5:E5"/>
@@ -8946,11 +8948,6 @@
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B4:F4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11919,26 +11916,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D47D794EB48E7144959FE534A5ED3D9A" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e2a26abefe6b107b571df4f2e43af2ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="98eacbea-7562-4a40-a7f2-e999cdc0cec5" xmlns:ns3="75bf9804-c18d-470a-a27f-eeaf4abcd247" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5806404ce956f9af473b927dc8d5ee33" ns2:_="" ns3:_="">
     <xsd:import namespace="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
@@ -12139,32 +12116,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="98eacbea-7562-4a40-a7f2-e999cdc0cec5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="75bf9804-c18d-470a-a27f-eeaf4abcd247" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{028E3775-7751-44E5-835D-F091B807F690}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12181,4 +12153,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D2739C-381D-470B-B6E1-B86FD5C25B2E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AE94761-8578-4804-B593-FBFFCD1EC013}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="98eacbea-7562-4a40-a7f2-e999cdc0cec5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="75bf9804-c18d-470a-a27f-eeaf4abcd247"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>